--- a/excels/0_Phase3_LexicalCluesENFR_Grouping_CJ.xlsx
+++ b/excels/0_Phase3_LexicalCluesENFR_Grouping_CJ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540"/>
+    <workbookView xWindow="-400" yWindow="1240" windowWidth="18040" windowHeight="12580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6229,8 +6229,8 @@
   <dimension ref="A1:I1323"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B211" sqref="B211"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H26" sqref="H26:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
